--- a/Утилита трудозатрат пожелания.xlsx
+++ b/Утилита трудозатрат пожелания.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4080"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15345" windowHeight="4080"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <definedName name="Статусы">Лист2!$A$39:$A$421</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>Дата</t>
   </si>
@@ -302,6 +301,9 @@
   </si>
   <si>
     <t>Ок. Бага, исправлена</t>
+  </si>
+  <si>
+    <t>Чурсина Е.А</t>
   </si>
 </sst>
 </file>
@@ -749,8 +751,8 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +807,9 @@
         <v>41</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="s">
         <v>58</v>
@@ -824,6 +828,9 @@
       <c r="D3" s="10" t="s">
         <v>43</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H3" s="9" t="s">
         <v>63</v>
       </c>
@@ -842,7 +849,9 @@
         <v>42</v>
       </c>
       <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="F4" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18" t="s">
         <v>56</v>
@@ -861,6 +870,9 @@
       <c r="D5" s="10" t="s">
         <v>55</v>
       </c>
+      <c r="F5" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H5" s="9" t="s">
         <v>57</v>
       </c>
@@ -878,6 +890,9 @@
       <c r="D6" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="F6" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H6" s="9" t="s">
         <v>58</v>
       </c>
@@ -895,6 +910,9 @@
       <c r="D7" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="F7" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H7" s="9" t="s">
         <v>60</v>
       </c>
@@ -913,7 +931,9 @@
         <v>48</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
         <v>65</v>
@@ -932,6 +952,9 @@
       <c r="D9" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="F9" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H9" s="9" t="s">
         <v>66</v>
       </c>
@@ -949,6 +972,9 @@
       <c r="D10" s="10" t="s">
         <v>47</v>
       </c>
+      <c r="F10" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H10" s="9" t="s">
         <v>57</v>
       </c>
@@ -967,7 +993,9 @@
         <v>49</v>
       </c>
       <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="F11" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18" t="s">
         <v>64</v>
@@ -986,6 +1014,9 @@
       <c r="D12" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="F12" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H12" s="9" t="s">
         <v>59</v>
       </c>
@@ -1003,6 +1034,9 @@
       <c r="D13" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="F13" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H13" s="9" t="s">
         <v>58</v>
       </c>
@@ -1020,6 +1054,9 @@
       <c r="D14" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="F14" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H14" s="9" t="s">
         <v>61</v>
       </c>
@@ -1037,6 +1074,9 @@
       <c r="D15" s="10" t="s">
         <v>53</v>
       </c>
+      <c r="F15" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H15" s="9" t="s">
         <v>61</v>
       </c>
@@ -1055,88 +1095,91 @@
         <v>54</v>
       </c>
       <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="F16" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>

--- a/Утилита трудозатрат пожелания.xlsx
+++ b/Утилита трудозатрат пожелания.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15345" windowHeight="4080"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="15345" windowHeight="4080"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
   <si>
     <t>Дата</t>
   </si>
@@ -270,15 +270,9 @@
     <t>Добавлять работу двойной клик по задаче, на правую кнопку – контекстное меню с выбором вариантов действий для задачи (добавить новую, корректировать, удалить)</t>
   </si>
   <si>
-    <t>Имя работы отображается в заголовке. Может быть лучше оставить и в теле работы? Или иначе редактировать?</t>
-  </si>
-  <si>
     <t>Работа следующего этапа</t>
   </si>
   <si>
-    <t>Ок</t>
-  </si>
-  <si>
     <t>Если ввести другое ID предка. Когда появятся окна - там будет все визуально.</t>
   </si>
   <si>
@@ -288,29 +282,32 @@
     <t>Работа следующего этапа.</t>
   </si>
   <si>
-    <t>Он не позволяет перевести в режим редактирования две задачи. При изменении выделенного узла - старые изменения не сохраняются. Понаблюдаю еще.</t>
-  </si>
-  <si>
-    <t>В процессе</t>
-  </si>
-  <si>
-    <t>Вопрос по реализации: это обязательное свойство?</t>
-  </si>
-  <si>
-    <t>Ок, увеличены размеры текстовых полей</t>
-  </si>
-  <si>
-    <t>Ок. Бага, исправлена</t>
-  </si>
-  <si>
     <t>Чурсина Е.А</t>
+  </si>
+  <si>
+    <t>Имя работы отображается и в заголовке, и в теле. Перевернуть!</t>
+  </si>
+  <si>
+    <t>Увеличены размеры тектовых полей</t>
+  </si>
+  <si>
+    <t>Баг, исправлен</t>
+  </si>
+  <si>
+    <t>Вопрос по реализации: это обязательное свойство? Да.</t>
+  </si>
+  <si>
+    <t>Есть в некотором виде</t>
+  </si>
+  <si>
+    <t>Интересно как? Если не изменять выделенное.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,8 +334,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +358,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -449,15 +471,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -467,6 +480,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,8 +815,8 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,32 +872,34 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
-        <v>58</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="14">
         <v>43248</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -849,32 +915,38 @@
         <v>42</v>
       </c>
       <c r="E4" s="18"/>
-      <c r="F4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="18"/>
+      <c r="F4" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="H4" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="30">
         <v>43248</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>57</v>
+      <c r="E5" s="31"/>
+      <c r="F5" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -891,52 +963,58 @@
         <v>44</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="14">
         <v>43248</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="25" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="G7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="17">
         <v>43248</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="s">
-        <v>65</v>
+      <c r="E8" s="18"/>
+      <c r="F8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -953,51 +1031,58 @@
         <v>46</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="21">
         <v>43248</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>57</v>
+      <c r="E10" s="22"/>
+      <c r="F10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="26">
         <v>43248</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18" t="s">
+      <c r="E11" s="27"/>
+      <c r="F11" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1005,20 +1090,24 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="14">
         <v>43248</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>59</v>
+      <c r="E12" s="15"/>
+      <c r="F12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1035,72 +1124,80 @@
         <v>51</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="21">
         <v>43248</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>61</v>
+      <c r="E14" s="22"/>
+      <c r="F14" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="21">
         <v>43248</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>61</v>
+      <c r="E15" s="22"/>
+      <c r="F15" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="26">
         <v>43248</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18" t="s">
-        <v>62</v>
+      <c r="E16" s="27"/>
+      <c r="F16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6040,7 +6137,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Утилита трудозатрат пожелания.xlsx
+++ b/Утилита трудозатрат пожелания.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\-staff-time\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\_УчётТрудозатрат\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
   <si>
     <t>Дата</t>
   </si>
@@ -302,11 +302,69 @@
   <si>
     <t>Интересно как? Если не изменять выделенное.</t>
   </si>
+  <si>
+    <t>при последовательном удалении задач из дерева, утилита прекращает работу</t>
+  </si>
+  <si>
+    <t>при удалении задач из дерева, курсор теряется. Желательно, чтобы выделялась нижеследующая задача</t>
+  </si>
+  <si>
+    <t>При входе в утилиту запоминать раскрытие дерева. Сейчас при входе в утилиту все задачи свернуты</t>
+  </si>
+  <si>
+    <t>закрепить за деревом минимальный размер раздела. Для то, чтобы меньше указанного размера нельзя было уменьшить ширину раздела с деревом.</t>
+  </si>
+  <si>
+    <t>при добавлении подзадачи, необходимо, чтобы дерево с задачей раскрывалось автоматически. Для того, чтобы было видно, что она реально создалась. По подзпдачам сделать по аналогии с задачами возможность указания наменования при её создании или добавить возможность корректировки названия более упрощенный (например, при двойном нажатии левой кнопки мыши, чтобы можно было корректировать название)</t>
+  </si>
+  <si>
+    <t>при нажатии на кнопку "Добавить подзадачу" в дерево добавляется строка с названием "Новая работа" - привести к единству. Предложение переименоватьназвание в дереве на "Новая подзадача".</t>
+  </si>
+  <si>
+    <t>Визуально выделить вкладки и кнопки в нижней части раздела Дерево. На данный момент, как понимаю "Управление" - это вкладка, а "Добавить задачу" - это кнопка, при нажатиии на которую создается запись на выбранный день.</t>
+  </si>
+  <si>
+    <t>Добавить возможность изменять расположение задачи в дереве</t>
+  </si>
+  <si>
+    <t>Закрывать автоматически форму выбора даты, после её выбора</t>
+  </si>
+  <si>
+    <t>При создании новой работы, все поля можно редактировать кроме "Тип работы". Это поле можно почему-то редактировать только если сохранить измеения и снова нажать на кнопку "Редактировать"</t>
+  </si>
+  <si>
+    <t>Если наименование работы и путь по дереву не влазиет целиком в одну строку свернутой работы, то
+1. Отображать начала пути дерева …, но конец чтобы был виден целиком (думаю можно рассмотреть вариант вывода дерева в обратном порядке);
+2. При наведении на работу в всплывающей подсказке можно было посмотреть все целиком</t>
+  </si>
+  <si>
+    <t>Добавь возможность изменения размера шрифта (например, мелкий, крупный, средний), причем изменения шрифта были соизмеримы с размерами полей.</t>
+  </si>
+  <si>
+    <t>Каким обрзом сейчас настроена сортировка задач в дереве на одно уровне? Если меняю тип задачи, то она меняет свое местоположение в дереве, наверное, это не совсем правильно.</t>
+  </si>
+  <si>
+    <t>Не увидела в таблицах дерева количества трудозатрат по конкретной работе и задаче.</t>
+  </si>
+  <si>
+    <t>Создала тестовый документ в базе "Тест Петина". В запросах где используется таблица Работы (Works) выходит ошибка "Недопустимое имя столбца Date"</t>
+  </si>
+  <si>
+    <t>Добавить возможность копирования задачи (возможно только на том же уровне):
+1. Создание такого же названия в другом узле дерева;
+2. Создание такой же задачи со всеми вложенными задачами.</t>
+  </si>
+  <si>
+    <t>Если за день уже много работ и новая в режиме корректировк не входит на монитор, необходимо автоматически проматывать вниз так чтобы окно корректировки активной задачи было видно целиком</t>
+  </si>
+  <si>
+    <t>Добавить кнопки работы с деревом: свернуть все, развернуть все, развернуть все до определенного уровня и т.д.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -814,9 +872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,159 +1262,327 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
+      <c r="B17" s="11">
+        <v>43256</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
+        <v>43256</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
+        <v>43256</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
+        <v>43256</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
+        <v>43256</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
+        <v>43256</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
+        <v>43256</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>43256</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="11">
+        <v>43256</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="11">
+        <v>43256</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="11">
+        <v>43256</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
+        <v>43256</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="11">
+        <v>43257</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="11">
+        <v>43257</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="11">
+        <v>43257</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="11">
+        <v>43257</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
+        <v>43257</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11">
+        <v>43257</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>47</v>
       </c>

--- a/Утилита трудозатрат пожелания.xlsx
+++ b/Утилита трудозатрат пожелания.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\_УчётТрудозатрат\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Настя работы\Мои работы\Трудозатраты\Проект\Project\-staff-time\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="85">
   <si>
     <t>Дата</t>
   </si>
@@ -873,8 +873,8 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1258,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1471,8 +1471,14 @@
       <c r="D31" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>

--- a/Утилита трудозатрат пожелания.xlsx
+++ b/Утилита трудозатрат пожелания.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4080"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="15345" windowHeight="4080"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <definedName name="Статусы">Лист2!$A$39:$A$421</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
   <si>
     <t>Дата</t>
   </si>
@@ -271,44 +270,96 @@
     <t>Добавлять работу двойной клик по задаче, на правую кнопку – контекстное меню с выбором вариантов действий для задачи (добавить новую, корректировать, удалить)</t>
   </si>
   <si>
-    <t>Имя работы отображается в заголовке. Может быть лучше оставить и в теле работы? Или иначе редактировать?</t>
-  </si>
-  <si>
-    <t>Работа следующего этапа</t>
-  </si>
-  <si>
-    <t>Ок</t>
-  </si>
-  <si>
-    <t>Если ввести другое ID предка. Когда появятся окна - там будет все визуально.</t>
-  </si>
-  <si>
-    <t>Работаю над окнами</t>
-  </si>
-  <si>
-    <t>Работа следующего этапа.</t>
-  </si>
-  <si>
-    <t>Он не позволяет перевести в режим редактирования две задачи. При изменении выделенного узла - старые изменения не сохраняются. Понаблюдаю еще.</t>
-  </si>
-  <si>
-    <t>В процессе</t>
-  </si>
-  <si>
-    <t>Вопрос по реализации: это обязательное свойство?</t>
-  </si>
-  <si>
-    <t>Ок, увеличены размеры текстовых полей</t>
-  </si>
-  <si>
-    <t>Ок. Бага, исправлена</t>
+    <t>Чурсина Е.А</t>
+  </si>
+  <si>
+    <t>Имя работы отображается и в заголовке, и в теле. Перевернуть!</t>
+  </si>
+  <si>
+    <t>Увеличены размеры тектовых полей</t>
+  </si>
+  <si>
+    <t>Баг, исправлен</t>
+  </si>
+  <si>
+    <t>при последовательном удалении задач из дерева, утилита прекращает работу</t>
+  </si>
+  <si>
+    <t>при удалении задач из дерева, курсор теряется. Желательно, чтобы выделялась нижеследующая задача</t>
+  </si>
+  <si>
+    <t>При входе в утилиту запоминать раскрытие дерева. Сейчас при входе в утилиту все задачи свернуты</t>
+  </si>
+  <si>
+    <t>закрепить за деревом минимальный размер раздела. Для то, чтобы меньше указанного размера нельзя было уменьшить ширину раздела с деревом.</t>
+  </si>
+  <si>
+    <t>при добавлении подзадачи, необходимо, чтобы дерево с задачей раскрывалось автоматически. Для того, чтобы было видно, что она реально создалась. По подзпдачам сделать по аналогии с задачами возможность указания наменования при её создании или добавить возможность корректировки названия более упрощенный (например, при двойном нажатии левой кнопки мыши, чтобы можно было корректировать название)</t>
+  </si>
+  <si>
+    <t>при нажатии на кнопку "Добавить подзадачу" в дерево добавляется строка с названием "Новая работа" - привести к единству. Предложение переименоватьназвание в дереве на "Новая подзадача".</t>
+  </si>
+  <si>
+    <t>Визуально выделить вкладки и кнопки в нижней части раздела Дерево. На данный момент, как понимаю "Управление" - это вкладка, а "Добавить задачу" - это кнопка, при нажатиии на которую создается запись на выбранный день.</t>
+  </si>
+  <si>
+    <t>Добавить возможность изменять расположение задачи в дереве</t>
+  </si>
+  <si>
+    <t>Закрывать автоматически форму выбора даты, после её выбора</t>
+  </si>
+  <si>
+    <t>При создании новой работы, все поля можно редактировать кроме "Тип работы". Это поле можно почему-то редактировать только если сохранить измеения и снова нажать на кнопку "Редактировать"</t>
+  </si>
+  <si>
+    <t>Если наименование работы и путь по дереву не влазиет целиком в одну строку свернутой работы, то
+1. Отображать начала пути дерева …, но конец чтобы был виден целиком (думаю можно рассмотреть вариант вывода дерева в обратном порядке);
+2. При наведении на работу в всплывающей подсказке можно было посмотреть все целиком</t>
+  </si>
+  <si>
+    <t>Добавь возможность изменения размера шрифта (например, мелкий, крупный, средний), причем изменения шрифта были соизмеримы с размерами полей.</t>
+  </si>
+  <si>
+    <t>Каким обрзом сейчас настроена сортировка задач в дереве на одно уровне? Если меняю тип задачи, то она меняет свое местоположение в дереве, наверное, это не совсем правильно.</t>
+  </si>
+  <si>
+    <t>Не увидела в таблицах дерева количества трудозатрат по конкретной работе и задаче.</t>
+  </si>
+  <si>
+    <t>Создала тестовый документ в базе "Тест Петина". В запросах где используется таблица Работы (Works) выходит ошибка "Недопустимое имя столбца Date"</t>
+  </si>
+  <si>
+    <t>Добавить возможность копирования задачи (возможно только на том же уровне):
+1. Создание такого же названия в другом узле дерева;
+2. Создание такой же задачи со всеми вложенными задачами.</t>
+  </si>
+  <si>
+    <t>Если за день уже много работ и новая в режиме корректировк не входит на монитор, необходимо автоматически проматывать вниз так чтобы окно корректировки активной задачи было видно целиком</t>
+  </si>
+  <si>
+    <t>Добавить кнопки работы с деревом: свернуть все, развернуть все, развернуть все до определенного уровня и т.д.</t>
+  </si>
+  <si>
+    <t>Ввод времени работы: минуты + время начала. Можно обговорить другой вариант.</t>
+  </si>
+  <si>
+    <t>Дерево</t>
+  </si>
+  <si>
+    <t>Невозможно вызвать два редактирования задачи</t>
+  </si>
+  <si>
+    <t>Был баг</t>
+  </si>
+  <si>
+    <t>Есть ли в новой версии этот баг?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,8 +386,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +410,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -423,15 +505,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -439,21 +512,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -465,6 +523,75 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,21 +875,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="78.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13" style="9" customWidth="1"/>
-    <col min="8" max="8" width="39.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="78.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13" style="6" customWidth="1"/>
+    <col min="8" max="8" width="39.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -795,444 +922,794 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="21">
         <v>43248</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>43248</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>63</v>
+      <c r="E3" s="10"/>
+      <c r="F3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="12">
         <v>43248</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="15" t="s">
         <v>56</v>
       </c>
+      <c r="G4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="24">
         <v>43248</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>57</v>
+      <c r="E5" s="25"/>
+      <c r="F5" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>43248</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>43248</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="E7" s="13"/>
+      <c r="F7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>43248</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="s">
-        <v>65</v>
+      <c r="E8" s="13"/>
+      <c r="F8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>43248</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>66</v>
+      <c r="E9" s="13"/>
+      <c r="F9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="28">
         <v>43248</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="12">
         <v>43248</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18" t="s">
-        <v>64</v>
-      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <v>43248</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <v>43248</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>43248</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="28">
         <v>43248</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="12">
         <v>43248</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E16" s="13"/>
+      <c r="F16" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="B17" s="17">
+        <v>43256</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="B18" s="28">
+        <v>43256</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="B19" s="28">
+        <v>43256</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="B20" s="12">
+        <v>43256</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="28">
+        <v>43256</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="B22" s="12">
+        <v>43256</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="B23" s="12">
+        <v>43256</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="B24" s="9">
+        <v>43256</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="B25" s="12">
+        <v>43256</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12">
+        <v>43256</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="B27" s="12">
+        <v>43256</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="B28" s="32">
+        <v>43256</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="B29" s="12">
+        <v>43257</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="B30" s="12">
+        <v>43257</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12">
+        <v>43257</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="B32" s="28">
+        <v>43257</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="32">
+        <v>43257</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="B34" s="28">
+        <v>43257</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
     </row>
@@ -1242,22 +1719,22 @@
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
     </row>
@@ -1267,22 +1744,22 @@
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
     </row>
@@ -1292,22 +1769,22 @@
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
     </row>
@@ -1317,22 +1794,22 @@
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
     </row>
@@ -1342,22 +1819,22 @@
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
+      <c r="A73" s="5">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
+      <c r="A74" s="5">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
+      <c r="A75" s="5">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8">
+      <c r="A76" s="5">
         <v>75</v>
       </c>
     </row>
@@ -1367,22 +1844,22 @@
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
+      <c r="A78" s="5">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8">
+      <c r="A79" s="5">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8">
+      <c r="A80" s="5">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8">
+      <c r="A81" s="5">
         <v>80</v>
       </c>
     </row>
@@ -1392,22 +1869,22 @@
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8">
+      <c r="A83" s="5">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8">
+      <c r="A84" s="5">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
+      <c r="A85" s="5">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
     </row>
@@ -1417,22 +1894,22 @@
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8">
+      <c r="A88" s="5">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8">
+      <c r="A89" s="5">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
     </row>
@@ -1442,22 +1919,22 @@
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="8">
+      <c r="A93" s="5">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8">
+      <c r="A95" s="5">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
     </row>
@@ -1467,22 +1944,22 @@
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8">
+      <c r="A99" s="5">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
     </row>
@@ -1492,22 +1969,22 @@
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8">
+      <c r="A103" s="5">
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="8">
+      <c r="A104" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="8">
+      <c r="A105" s="5">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="8">
+      <c r="A106" s="5">
         <v>105</v>
       </c>
     </row>
@@ -1517,22 +1994,22 @@
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="8">
+      <c r="A108" s="5">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="8">
+      <c r="A109" s="5">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="8">
+      <c r="A110" s="5">
         <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="8">
+      <c r="A111" s="5">
         <v>110</v>
       </c>
     </row>
@@ -1542,22 +2019,22 @@
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="8">
+      <c r="A113" s="5">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="8">
+      <c r="A114" s="5">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="8">
+      <c r="A115" s="5">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="8">
+      <c r="A116" s="5">
         <v>115</v>
       </c>
     </row>
@@ -1567,22 +2044,22 @@
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="8">
+      <c r="A118" s="5">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="8">
+      <c r="A119" s="5">
         <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="8">
+      <c r="A120" s="5">
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="8">
+      <c r="A121" s="5">
         <v>120</v>
       </c>
     </row>
@@ -1592,22 +2069,22 @@
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="8">
+      <c r="A123" s="5">
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="8">
+      <c r="A124" s="5">
         <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="8">
+      <c r="A125" s="5">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="8">
+      <c r="A126" s="5">
         <v>125</v>
       </c>
     </row>
@@ -1617,22 +2094,22 @@
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="8">
+      <c r="A128" s="5">
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="8">
+      <c r="A129" s="5">
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="8">
+      <c r="A130" s="5">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="8">
+      <c r="A131" s="5">
         <v>130</v>
       </c>
     </row>
@@ -1642,22 +2119,22 @@
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="8">
+      <c r="A133" s="5">
         <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="8">
+      <c r="A134" s="5">
         <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="8">
+      <c r="A135" s="5">
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="8">
+      <c r="A136" s="5">
         <v>135</v>
       </c>
     </row>
@@ -1667,22 +2144,22 @@
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="8">
+      <c r="A138" s="5">
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="8">
+      <c r="A139" s="5">
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="8">
+      <c r="A140" s="5">
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8">
+      <c r="A141" s="5">
         <v>140</v>
       </c>
     </row>
@@ -1692,22 +2169,22 @@
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="8">
+      <c r="A143" s="5">
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="8">
+      <c r="A144" s="5">
         <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="8">
+      <c r="A145" s="5">
         <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="8">
+      <c r="A146" s="5">
         <v>145</v>
       </c>
     </row>
@@ -1717,22 +2194,22 @@
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="8">
+      <c r="A148" s="5">
         <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="8">
+      <c r="A149" s="5">
         <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="8">
+      <c r="A150" s="5">
         <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="8">
+      <c r="A151" s="5">
         <v>150</v>
       </c>
     </row>
@@ -1742,22 +2219,22 @@
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="8">
+      <c r="A153" s="5">
         <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="8">
+      <c r="A154" s="5">
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="8">
+      <c r="A155" s="5">
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="8">
+      <c r="A156" s="5">
         <v>155</v>
       </c>
     </row>
@@ -1767,22 +2244,22 @@
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="8">
+      <c r="A158" s="5">
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="8">
+      <c r="A159" s="5">
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="8">
+      <c r="A160" s="5">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="8">
+      <c r="A161" s="5">
         <v>160</v>
       </c>
     </row>
@@ -1792,22 +2269,22 @@
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="8">
+      <c r="A163" s="5">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="8">
+      <c r="A164" s="5">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="8">
+      <c r="A165" s="5">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="8">
+      <c r="A166" s="5">
         <v>165</v>
       </c>
     </row>
@@ -1817,22 +2294,22 @@
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="8">
+      <c r="A168" s="5">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="8">
+      <c r="A169" s="5">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="8">
+      <c r="A170" s="5">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="8">
+      <c r="A171" s="5">
         <v>170</v>
       </c>
     </row>
@@ -1842,22 +2319,22 @@
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="8">
+      <c r="A173" s="5">
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="8">
+      <c r="A174" s="5">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="8">
+      <c r="A175" s="5">
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="8">
+      <c r="A176" s="5">
         <v>175</v>
       </c>
     </row>
@@ -1867,22 +2344,22 @@
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="8">
+      <c r="A178" s="5">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="8">
+      <c r="A179" s="5">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="8">
+      <c r="A180" s="5">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="8">
+      <c r="A181" s="5">
         <v>180</v>
       </c>
     </row>
@@ -1892,22 +2369,22 @@
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="8">
+      <c r="A183" s="5">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="8">
+      <c r="A184" s="5">
         <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="8">
+      <c r="A185" s="5">
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="8">
+      <c r="A186" s="5">
         <v>185</v>
       </c>
     </row>
@@ -1917,22 +2394,22 @@
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="8">
+      <c r="A188" s="5">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="8">
+      <c r="A189" s="5">
         <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="8">
+      <c r="A190" s="5">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="8">
+      <c r="A191" s="5">
         <v>190</v>
       </c>
     </row>
@@ -1942,22 +2419,22 @@
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="8">
+      <c r="A193" s="5">
         <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="8">
+      <c r="A194" s="5">
         <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="8">
+      <c r="A195" s="5">
         <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="8">
+      <c r="A196" s="5">
         <v>195</v>
       </c>
     </row>
@@ -1967,22 +2444,22 @@
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="8">
+      <c r="A198" s="5">
         <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="8">
+      <c r="A199" s="5">
         <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="8">
+      <c r="A200" s="5">
         <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="8">
+      <c r="A201" s="5">
         <v>200</v>
       </c>
     </row>
@@ -1992,22 +2469,22 @@
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="8">
+      <c r="A203" s="5">
         <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="8">
+      <c r="A204" s="5">
         <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="8">
+      <c r="A205" s="5">
         <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="8">
+      <c r="A206" s="5">
         <v>205</v>
       </c>
     </row>
@@ -2017,22 +2494,22 @@
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="8">
+      <c r="A208" s="5">
         <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="8">
+      <c r="A209" s="5">
         <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="8">
+      <c r="A210" s="5">
         <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="8">
+      <c r="A211" s="5">
         <v>210</v>
       </c>
     </row>
@@ -2042,22 +2519,22 @@
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="8">
+      <c r="A213" s="5">
         <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="8">
+      <c r="A214" s="5">
         <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="8">
+      <c r="A215" s="5">
         <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="8">
+      <c r="A216" s="5">
         <v>215</v>
       </c>
     </row>
@@ -2067,22 +2544,22 @@
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="8">
+      <c r="A218" s="5">
         <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="8">
+      <c r="A219" s="5">
         <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="8">
+      <c r="A220" s="5">
         <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="8">
+      <c r="A221" s="5">
         <v>220</v>
       </c>
     </row>
@@ -2092,22 +2569,22 @@
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="8">
+      <c r="A223" s="5">
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="8">
+      <c r="A224" s="5">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="8">
+      <c r="A225" s="5">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="8">
+      <c r="A226" s="5">
         <v>225</v>
       </c>
     </row>
@@ -2117,22 +2594,22 @@
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="8">
+      <c r="A228" s="5">
         <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="8">
+      <c r="A229" s="5">
         <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="8">
+      <c r="A230" s="5">
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="8">
+      <c r="A231" s="5">
         <v>230</v>
       </c>
     </row>
@@ -2142,22 +2619,22 @@
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="8">
+      <c r="A233" s="5">
         <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="8">
+      <c r="A234" s="5">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="8">
+      <c r="A235" s="5">
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="8">
+      <c r="A236" s="5">
         <v>235</v>
       </c>
     </row>
@@ -2167,22 +2644,22 @@
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="8">
+      <c r="A238" s="5">
         <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="8">
+      <c r="A239" s="5">
         <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="8">
+      <c r="A240" s="5">
         <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="8">
+      <c r="A241" s="5">
         <v>240</v>
       </c>
     </row>
@@ -2192,22 +2669,22 @@
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="8">
+      <c r="A243" s="5">
         <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="8">
+      <c r="A244" s="5">
         <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="8">
+      <c r="A245" s="5">
         <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="8">
+      <c r="A246" s="5">
         <v>245</v>
       </c>
     </row>
@@ -2217,22 +2694,22 @@
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="8">
+      <c r="A248" s="5">
         <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="8">
+      <c r="A249" s="5">
         <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="8">
+      <c r="A250" s="5">
         <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="8">
+      <c r="A251" s="5">
         <v>250</v>
       </c>
     </row>
@@ -2242,22 +2719,22 @@
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="8">
+      <c r="A253" s="5">
         <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="8">
+      <c r="A254" s="5">
         <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="8">
+      <c r="A255" s="5">
         <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="8">
+      <c r="A256" s="5">
         <v>255</v>
       </c>
     </row>
@@ -2267,22 +2744,22 @@
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="8">
+      <c r="A258" s="5">
         <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="8">
+      <c r="A259" s="5">
         <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="8">
+      <c r="A260" s="5">
         <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="8">
+      <c r="A261" s="5">
         <v>260</v>
       </c>
     </row>
@@ -2292,22 +2769,22 @@
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="8">
+      <c r="A263" s="5">
         <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="8">
+      <c r="A264" s="5">
         <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="8">
+      <c r="A265" s="5">
         <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="8">
+      <c r="A266" s="5">
         <v>265</v>
       </c>
     </row>
@@ -2317,22 +2794,22 @@
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="8">
+      <c r="A268" s="5">
         <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="8">
+      <c r="A269" s="5">
         <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="8">
+      <c r="A270" s="5">
         <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="8">
+      <c r="A271" s="5">
         <v>270</v>
       </c>
     </row>
@@ -2342,22 +2819,22 @@
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="8">
+      <c r="A273" s="5">
         <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="8">
+      <c r="A274" s="5">
         <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="8">
+      <c r="A275" s="5">
         <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="8">
+      <c r="A276" s="5">
         <v>275</v>
       </c>
     </row>
@@ -2367,22 +2844,22 @@
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="8">
+      <c r="A278" s="5">
         <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="8">
+      <c r="A279" s="5">
         <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="8">
+      <c r="A280" s="5">
         <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="8">
+      <c r="A281" s="5">
         <v>280</v>
       </c>
     </row>
@@ -2392,22 +2869,22 @@
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="8">
+      <c r="A283" s="5">
         <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="8">
+      <c r="A284" s="5">
         <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="8">
+      <c r="A285" s="5">
         <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="8">
+      <c r="A286" s="5">
         <v>285</v>
       </c>
     </row>
@@ -2417,22 +2894,22 @@
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="8">
+      <c r="A288" s="5">
         <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="8">
+      <c r="A289" s="5">
         <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="8">
+      <c r="A290" s="5">
         <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="8">
+      <c r="A291" s="5">
         <v>290</v>
       </c>
     </row>
@@ -2442,22 +2919,22 @@
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="8">
+      <c r="A293" s="5">
         <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="8">
+      <c r="A294" s="5">
         <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="8">
+      <c r="A295" s="5">
         <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="8">
+      <c r="A296" s="5">
         <v>295</v>
       </c>
     </row>
@@ -2467,22 +2944,22 @@
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="8">
+      <c r="A298" s="5">
         <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="8">
+      <c r="A299" s="5">
         <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="8">
+      <c r="A300" s="5">
         <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="8">
+      <c r="A301" s="5">
         <v>300</v>
       </c>
     </row>
@@ -2492,22 +2969,22 @@
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="8">
+      <c r="A303" s="5">
         <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="8">
+      <c r="A304" s="5">
         <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="8">
+      <c r="A305" s="5">
         <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="8">
+      <c r="A306" s="5">
         <v>305</v>
       </c>
     </row>
@@ -2517,22 +2994,22 @@
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="8">
+      <c r="A308" s="5">
         <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="8">
+      <c r="A309" s="5">
         <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="8">
+      <c r="A310" s="5">
         <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="8">
+      <c r="A311" s="5">
         <v>310</v>
       </c>
     </row>
@@ -2542,22 +3019,22 @@
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="8">
+      <c r="A313" s="5">
         <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="8">
+      <c r="A314" s="5">
         <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="8">
+      <c r="A315" s="5">
         <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="8">
+      <c r="A316" s="5">
         <v>315</v>
       </c>
     </row>
@@ -2567,22 +3044,22 @@
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="8">
+      <c r="A318" s="5">
         <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="8">
+      <c r="A319" s="5">
         <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="8">
+      <c r="A320" s="5">
         <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="8">
+      <c r="A321" s="5">
         <v>320</v>
       </c>
     </row>
@@ -2592,22 +3069,22 @@
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="8">
+      <c r="A323" s="5">
         <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="8">
+      <c r="A324" s="5">
         <v>323</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="8">
+      <c r="A325" s="5">
         <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="8">
+      <c r="A326" s="5">
         <v>325</v>
       </c>
     </row>
@@ -2617,22 +3094,22 @@
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="8">
+      <c r="A328" s="5">
         <v>327</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="8">
+      <c r="A329" s="5">
         <v>328</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="8">
+      <c r="A330" s="5">
         <v>329</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="8">
+      <c r="A331" s="5">
         <v>330</v>
       </c>
     </row>
@@ -2642,22 +3119,22 @@
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="8">
+      <c r="A333" s="5">
         <v>332</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="8">
+      <c r="A334" s="5">
         <v>333</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="8">
+      <c r="A335" s="5">
         <v>334</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="8">
+      <c r="A336" s="5">
         <v>335</v>
       </c>
     </row>
@@ -2667,22 +3144,22 @@
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="8">
+      <c r="A338" s="5">
         <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="8">
+      <c r="A339" s="5">
         <v>338</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="8">
+      <c r="A340" s="5">
         <v>339</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="8">
+      <c r="A341" s="5">
         <v>340</v>
       </c>
     </row>
@@ -2692,22 +3169,22 @@
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="8">
+      <c r="A343" s="5">
         <v>342</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="8">
+      <c r="A344" s="5">
         <v>343</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="8">
+      <c r="A345" s="5">
         <v>344</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="8">
+      <c r="A346" s="5">
         <v>345</v>
       </c>
     </row>
@@ -2717,22 +3194,22 @@
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="8">
+      <c r="A348" s="5">
         <v>347</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="8">
+      <c r="A349" s="5">
         <v>348</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="8">
+      <c r="A350" s="5">
         <v>349</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="8">
+      <c r="A351" s="5">
         <v>350</v>
       </c>
     </row>
@@ -2742,22 +3219,22 @@
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="8">
+      <c r="A353" s="5">
         <v>352</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="8">
+      <c r="A354" s="5">
         <v>353</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="8">
+      <c r="A355" s="5">
         <v>354</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="8">
+      <c r="A356" s="5">
         <v>355</v>
       </c>
     </row>
@@ -2767,22 +3244,22 @@
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="8">
+      <c r="A358" s="5">
         <v>357</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="8">
+      <c r="A359" s="5">
         <v>358</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="8">
+      <c r="A360" s="5">
         <v>359</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="8">
+      <c r="A361" s="5">
         <v>360</v>
       </c>
     </row>
@@ -2792,22 +3269,22 @@
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="8">
+      <c r="A363" s="5">
         <v>362</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="8">
+      <c r="A364" s="5">
         <v>363</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="8">
+      <c r="A365" s="5">
         <v>364</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="8">
+      <c r="A366" s="5">
         <v>365</v>
       </c>
     </row>
@@ -2817,22 +3294,22 @@
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="8">
+      <c r="A368" s="5">
         <v>367</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="8">
+      <c r="A369" s="5">
         <v>368</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="8">
+      <c r="A370" s="5">
         <v>369</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="8">
+      <c r="A371" s="5">
         <v>370</v>
       </c>
     </row>
@@ -2842,22 +3319,22 @@
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="8">
+      <c r="A373" s="5">
         <v>372</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="8">
+      <c r="A374" s="5">
         <v>373</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="8">
+      <c r="A375" s="5">
         <v>374</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="8">
+      <c r="A376" s="5">
         <v>375</v>
       </c>
     </row>
@@ -2867,22 +3344,22 @@
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="8">
+      <c r="A378" s="5">
         <v>377</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="8">
+      <c r="A379" s="5">
         <v>378</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="8">
+      <c r="A380" s="5">
         <v>379</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="8">
+      <c r="A381" s="5">
         <v>380</v>
       </c>
     </row>
@@ -2892,22 +3369,22 @@
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="8">
+      <c r="A383" s="5">
         <v>382</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="8">
+      <c r="A384" s="5">
         <v>383</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="8">
+      <c r="A385" s="5">
         <v>384</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="8">
+      <c r="A386" s="5">
         <v>385</v>
       </c>
     </row>
@@ -2917,22 +3394,22 @@
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="8">
+      <c r="A388" s="5">
         <v>387</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="8">
+      <c r="A389" s="5">
         <v>388</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="8">
+      <c r="A390" s="5">
         <v>389</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="8">
+      <c r="A391" s="5">
         <v>390</v>
       </c>
     </row>
@@ -2942,22 +3419,22 @@
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="8">
+      <c r="A393" s="5">
         <v>392</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="8">
+      <c r="A394" s="5">
         <v>393</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="8">
+      <c r="A395" s="5">
         <v>394</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="8">
+      <c r="A396" s="5">
         <v>395</v>
       </c>
     </row>
@@ -2967,22 +3444,22 @@
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="8">
+      <c r="A398" s="5">
         <v>397</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="8">
+      <c r="A399" s="5">
         <v>398</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="8">
+      <c r="A400" s="5">
         <v>399</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="8">
+      <c r="A401" s="5">
         <v>400</v>
       </c>
     </row>
@@ -2992,22 +3469,22 @@
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="8">
+      <c r="A403" s="5">
         <v>402</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="8">
+      <c r="A404" s="5">
         <v>403</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="8">
+      <c r="A405" s="5">
         <v>404</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="8">
+      <c r="A406" s="5">
         <v>405</v>
       </c>
     </row>
@@ -3017,22 +3494,22 @@
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="8">
+      <c r="A408" s="5">
         <v>407</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="8">
+      <c r="A409" s="5">
         <v>408</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="8">
+      <c r="A410" s="5">
         <v>409</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="8">
+      <c r="A411" s="5">
         <v>410</v>
       </c>
     </row>
@@ -3042,22 +3519,22 @@
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="8">
+      <c r="A413" s="5">
         <v>412</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="8">
+      <c r="A414" s="5">
         <v>413</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="8">
+      <c r="A415" s="5">
         <v>414</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="8">
+      <c r="A416" s="5">
         <v>415</v>
       </c>
     </row>
@@ -3067,22 +3544,22 @@
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="8">
+      <c r="A418" s="5">
         <v>417</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="8">
+      <c r="A419" s="5">
         <v>418</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="8">
+      <c r="A420" s="5">
         <v>419</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="8">
+      <c r="A421" s="5">
         <v>420</v>
       </c>
     </row>
@@ -3092,22 +3569,22 @@
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="8">
+      <c r="A423" s="5">
         <v>422</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="8">
+      <c r="A424" s="5">
         <v>423</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="8">
+      <c r="A425" s="5">
         <v>424</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="8">
+      <c r="A426" s="5">
         <v>425</v>
       </c>
     </row>
@@ -3117,22 +3594,22 @@
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="8">
+      <c r="A428" s="5">
         <v>427</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="8">
+      <c r="A429" s="5">
         <v>428</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="8">
+      <c r="A430" s="5">
         <v>429</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="8">
+      <c r="A431" s="5">
         <v>430</v>
       </c>
     </row>
@@ -3142,22 +3619,22 @@
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="8">
+      <c r="A433" s="5">
         <v>432</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="8">
+      <c r="A434" s="5">
         <v>433</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="8">
+      <c r="A435" s="5">
         <v>434</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="8">
+      <c r="A436" s="5">
         <v>435</v>
       </c>
     </row>
@@ -3167,22 +3644,22 @@
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="8">
+      <c r="A438" s="5">
         <v>437</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="8">
+      <c r="A439" s="5">
         <v>438</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="8">
+      <c r="A440" s="5">
         <v>439</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="8">
+      <c r="A441" s="5">
         <v>440</v>
       </c>
     </row>
@@ -3192,22 +3669,22 @@
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="8">
+      <c r="A443" s="5">
         <v>442</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="8">
+      <c r="A444" s="5">
         <v>443</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="8">
+      <c r="A445" s="5">
         <v>444</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="8">
+      <c r="A446" s="5">
         <v>445</v>
       </c>
     </row>
@@ -3217,22 +3694,22 @@
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="8">
+      <c r="A448" s="5">
         <v>447</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="8">
+      <c r="A449" s="5">
         <v>448</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="8">
+      <c r="A450" s="5">
         <v>449</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="8">
+      <c r="A451" s="5">
         <v>450</v>
       </c>
     </row>
@@ -3242,22 +3719,22 @@
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="8">
+      <c r="A453" s="5">
         <v>452</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="8">
+      <c r="A454" s="5">
         <v>453</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="8">
+      <c r="A455" s="5">
         <v>454</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="8">
+      <c r="A456" s="5">
         <v>455</v>
       </c>
     </row>
@@ -3267,22 +3744,22 @@
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="8">
+      <c r="A458" s="5">
         <v>457</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="8">
+      <c r="A459" s="5">
         <v>458</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="8">
+      <c r="A460" s="5">
         <v>459</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="8">
+      <c r="A461" s="5">
         <v>460</v>
       </c>
     </row>
@@ -3292,22 +3769,22 @@
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="8">
+      <c r="A463" s="5">
         <v>462</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="8">
+      <c r="A464" s="5">
         <v>463</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="8">
+      <c r="A465" s="5">
         <v>464</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="8">
+      <c r="A466" s="5">
         <v>465</v>
       </c>
     </row>
@@ -3317,22 +3794,22 @@
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="8">
+      <c r="A468" s="5">
         <v>467</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="8">
+      <c r="A469" s="5">
         <v>468</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="8">
+      <c r="A470" s="5">
         <v>469</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="8">
+      <c r="A471" s="5">
         <v>470</v>
       </c>
     </row>
@@ -3342,22 +3819,22 @@
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="8">
+      <c r="A473" s="5">
         <v>472</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="8">
+      <c r="A474" s="5">
         <v>473</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="8">
+      <c r="A475" s="5">
         <v>474</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="8">
+      <c r="A476" s="5">
         <v>475</v>
       </c>
     </row>
@@ -3367,22 +3844,22 @@
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="8">
+      <c r="A478" s="5">
         <v>477</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="8">
+      <c r="A479" s="5">
         <v>478</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="8">
+      <c r="A480" s="5">
         <v>479</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="8">
+      <c r="A481" s="5">
         <v>480</v>
       </c>
     </row>
@@ -3392,22 +3869,22 @@
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="8">
+      <c r="A483" s="5">
         <v>482</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="8">
+      <c r="A484" s="5">
         <v>483</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="8">
+      <c r="A485" s="5">
         <v>484</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="8">
+      <c r="A486" s="5">
         <v>485</v>
       </c>
     </row>
@@ -3417,22 +3894,22 @@
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="8">
+      <c r="A488" s="5">
         <v>487</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="8">
+      <c r="A489" s="5">
         <v>488</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="8">
+      <c r="A490" s="5">
         <v>489</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="8">
+      <c r="A491" s="5">
         <v>490</v>
       </c>
     </row>
@@ -3442,22 +3919,22 @@
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="8">
+      <c r="A493" s="5">
         <v>492</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="8">
+      <c r="A494" s="5">
         <v>493</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="8">
+      <c r="A495" s="5">
         <v>494</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="8">
+      <c r="A496" s="5">
         <v>495</v>
       </c>
     </row>
@@ -3467,22 +3944,22 @@
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="8">
+      <c r="A498" s="5">
         <v>497</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="8">
+      <c r="A499" s="5">
         <v>498</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="8">
+      <c r="A500" s="5">
         <v>499</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="8">
+      <c r="A501" s="5">
         <v>500</v>
       </c>
     </row>
@@ -3492,22 +3969,22 @@
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="8">
+      <c r="A503" s="5">
         <v>502</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="8">
+      <c r="A504" s="5">
         <v>503</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="8">
+      <c r="A505" s="5">
         <v>504</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="8">
+      <c r="A506" s="5">
         <v>505</v>
       </c>
     </row>
@@ -3517,22 +3994,22 @@
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="8">
+      <c r="A508" s="5">
         <v>507</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="8">
+      <c r="A509" s="5">
         <v>508</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="8">
+      <c r="A510" s="5">
         <v>509</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="8">
+      <c r="A511" s="5">
         <v>510</v>
       </c>
     </row>
@@ -3542,22 +4019,22 @@
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="8">
+      <c r="A513" s="5">
         <v>512</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="8">
+      <c r="A514" s="5">
         <v>513</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="8">
+      <c r="A515" s="5">
         <v>514</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="8">
+      <c r="A516" s="5">
         <v>515</v>
       </c>
     </row>
@@ -3567,22 +4044,22 @@
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="8">
+      <c r="A518" s="5">
         <v>517</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="8">
+      <c r="A519" s="5">
         <v>518</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="8">
+      <c r="A520" s="5">
         <v>519</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="8">
+      <c r="A521" s="5">
         <v>520</v>
       </c>
     </row>
@@ -3592,22 +4069,22 @@
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="8">
+      <c r="A523" s="5">
         <v>522</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="8">
+      <c r="A524" s="5">
         <v>523</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="8">
+      <c r="A525" s="5">
         <v>524</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="8">
+      <c r="A526" s="5">
         <v>525</v>
       </c>
     </row>
@@ -3617,22 +4094,22 @@
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="8">
+      <c r="A528" s="5">
         <v>527</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="8">
+      <c r="A529" s="5">
         <v>528</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="8">
+      <c r="A530" s="5">
         <v>529</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="8">
+      <c r="A531" s="5">
         <v>530</v>
       </c>
     </row>
@@ -3642,22 +4119,22 @@
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="8">
+      <c r="A533" s="5">
         <v>532</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="8">
+      <c r="A534" s="5">
         <v>533</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="8">
+      <c r="A535" s="5">
         <v>534</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="8">
+      <c r="A536" s="5">
         <v>535</v>
       </c>
     </row>
@@ -3667,22 +4144,22 @@
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="8">
+      <c r="A538" s="5">
         <v>537</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="8">
+      <c r="A539" s="5">
         <v>538</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="8">
+      <c r="A540" s="5">
         <v>539</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="8">
+      <c r="A541" s="5">
         <v>540</v>
       </c>
     </row>
@@ -3692,22 +4169,22 @@
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="8">
+      <c r="A543" s="5">
         <v>542</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="8">
+      <c r="A544" s="5">
         <v>543</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="8">
+      <c r="A545" s="5">
         <v>544</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="8">
+      <c r="A546" s="5">
         <v>545</v>
       </c>
     </row>
@@ -3717,22 +4194,22 @@
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="8">
+      <c r="A548" s="5">
         <v>547</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="8">
+      <c r="A549" s="5">
         <v>548</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="8">
+      <c r="A550" s="5">
         <v>549</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="8">
+      <c r="A551" s="5">
         <v>550</v>
       </c>
     </row>
@@ -3742,22 +4219,22 @@
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="8">
+      <c r="A553" s="5">
         <v>552</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="8">
+      <c r="A554" s="5">
         <v>553</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="8">
+      <c r="A555" s="5">
         <v>554</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="8">
+      <c r="A556" s="5">
         <v>555</v>
       </c>
     </row>
@@ -3767,22 +4244,22 @@
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="8">
+      <c r="A558" s="5">
         <v>557</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="8">
+      <c r="A559" s="5">
         <v>558</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="8">
+      <c r="A560" s="5">
         <v>559</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="8">
+      <c r="A561" s="5">
         <v>560</v>
       </c>
     </row>
@@ -3792,22 +4269,22 @@
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="8">
+      <c r="A563" s="5">
         <v>562</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="8">
+      <c r="A564" s="5">
         <v>563</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="8">
+      <c r="A565" s="5">
         <v>564</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="8">
+      <c r="A566" s="5">
         <v>565</v>
       </c>
     </row>
@@ -3817,22 +4294,22 @@
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="8">
+      <c r="A568" s="5">
         <v>567</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="8">
+      <c r="A569" s="5">
         <v>568</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="8">
+      <c r="A570" s="5">
         <v>569</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="8">
+      <c r="A571" s="5">
         <v>570</v>
       </c>
     </row>
@@ -3842,22 +4319,22 @@
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="8">
+      <c r="A573" s="5">
         <v>572</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="8">
+      <c r="A574" s="5">
         <v>573</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="8">
+      <c r="A575" s="5">
         <v>574</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="8">
+      <c r="A576" s="5">
         <v>575</v>
       </c>
     </row>
@@ -3867,22 +4344,22 @@
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="8">
+      <c r="A578" s="5">
         <v>577</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="8">
+      <c r="A579" s="5">
         <v>578</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="8">
+      <c r="A580" s="5">
         <v>579</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="8">
+      <c r="A581" s="5">
         <v>580</v>
       </c>
     </row>
@@ -3892,22 +4369,22 @@
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="8">
+      <c r="A583" s="5">
         <v>582</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="8">
+      <c r="A584" s="5">
         <v>583</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="8">
+      <c r="A585" s="5">
         <v>584</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="8">
+      <c r="A586" s="5">
         <v>585</v>
       </c>
     </row>
@@ -3917,22 +4394,22 @@
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="8">
+      <c r="A588" s="5">
         <v>587</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="8">
+      <c r="A589" s="5">
         <v>588</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="8">
+      <c r="A590" s="5">
         <v>589</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="8">
+      <c r="A591" s="5">
         <v>590</v>
       </c>
     </row>
@@ -3942,22 +4419,22 @@
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="8">
+      <c r="A593" s="5">
         <v>592</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="8">
+      <c r="A594" s="5">
         <v>593</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="8">
+      <c r="A595" s="5">
         <v>594</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="8">
+      <c r="A596" s="5">
         <v>595</v>
       </c>
     </row>
@@ -3967,22 +4444,22 @@
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="8">
+      <c r="A598" s="5">
         <v>597</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="8">
+      <c r="A599" s="5">
         <v>598</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="8">
+      <c r="A600" s="5">
         <v>599</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="8">
+      <c r="A601" s="5">
         <v>600</v>
       </c>
     </row>
@@ -3992,22 +4469,22 @@
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="8">
+      <c r="A603" s="5">
         <v>602</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="8">
+      <c r="A604" s="5">
         <v>603</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="8">
+      <c r="A605" s="5">
         <v>604</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="8">
+      <c r="A606" s="5">
         <v>605</v>
       </c>
     </row>
@@ -4017,22 +4494,22 @@
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="8">
+      <c r="A608" s="5">
         <v>607</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="8">
+      <c r="A609" s="5">
         <v>608</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="8">
+      <c r="A610" s="5">
         <v>609</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="8">
+      <c r="A611" s="5">
         <v>610</v>
       </c>
     </row>
@@ -4042,22 +4519,22 @@
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="8">
+      <c r="A613" s="5">
         <v>612</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="8">
+      <c r="A614" s="5">
         <v>613</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="8">
+      <c r="A615" s="5">
         <v>614</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="8">
+      <c r="A616" s="5">
         <v>615</v>
       </c>
     </row>
@@ -4067,22 +4544,22 @@
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="8">
+      <c r="A618" s="5">
         <v>617</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="8">
+      <c r="A619" s="5">
         <v>618</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="8">
+      <c r="A620" s="5">
         <v>619</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="8">
+      <c r="A621" s="5">
         <v>620</v>
       </c>
     </row>
@@ -4092,22 +4569,22 @@
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="8">
+      <c r="A623" s="5">
         <v>622</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="8">
+      <c r="A624" s="5">
         <v>623</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="8">
+      <c r="A625" s="5">
         <v>624</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="8">
+      <c r="A626" s="5">
         <v>625</v>
       </c>
     </row>
@@ -4117,22 +4594,22 @@
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="8">
+      <c r="A628" s="5">
         <v>627</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="8">
+      <c r="A629" s="5">
         <v>628</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="8">
+      <c r="A630" s="5">
         <v>629</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="8">
+      <c r="A631" s="5">
         <v>630</v>
       </c>
     </row>
@@ -4142,22 +4619,22 @@
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="8">
+      <c r="A633" s="5">
         <v>632</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="8">
+      <c r="A634" s="5">
         <v>633</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="8">
+      <c r="A635" s="5">
         <v>634</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="8">
+      <c r="A636" s="5">
         <v>635</v>
       </c>
     </row>
@@ -4167,22 +4644,22 @@
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="8">
+      <c r="A638" s="5">
         <v>637</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="8">
+      <c r="A639" s="5">
         <v>638</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="8">
+      <c r="A640" s="5">
         <v>639</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="8">
+      <c r="A641" s="5">
         <v>640</v>
       </c>
     </row>
@@ -4192,22 +4669,22 @@
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="8">
+      <c r="A643" s="5">
         <v>642</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="8">
+      <c r="A644" s="5">
         <v>643</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="8">
+      <c r="A645" s="5">
         <v>644</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="8">
+      <c r="A646" s="5">
         <v>645</v>
       </c>
     </row>
@@ -4217,22 +4694,22 @@
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="8">
+      <c r="A648" s="5">
         <v>647</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="8">
+      <c r="A649" s="5">
         <v>648</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" s="8">
+      <c r="A650" s="5">
         <v>649</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="8">
+      <c r="A651" s="5">
         <v>650</v>
       </c>
     </row>
@@ -4242,22 +4719,22 @@
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="8">
+      <c r="A653" s="5">
         <v>652</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="8">
+      <c r="A654" s="5">
         <v>653</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="8">
+      <c r="A655" s="5">
         <v>654</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" s="8">
+      <c r="A656" s="5">
         <v>655</v>
       </c>
     </row>
@@ -4267,22 +4744,22 @@
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="8">
+      <c r="A658" s="5">
         <v>657</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="8">
+      <c r="A659" s="5">
         <v>658</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="8">
+      <c r="A660" s="5">
         <v>659</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="8">
+      <c r="A661" s="5">
         <v>660</v>
       </c>
     </row>
@@ -4292,22 +4769,22 @@
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" s="8">
+      <c r="A663" s="5">
         <v>662</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="8">
+      <c r="A664" s="5">
         <v>663</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="8">
+      <c r="A665" s="5">
         <v>664</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="8">
+      <c r="A666" s="5">
         <v>665</v>
       </c>
     </row>
@@ -4317,22 +4794,22 @@
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="8">
+      <c r="A668" s="5">
         <v>667</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="8">
+      <c r="A669" s="5">
         <v>668</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" s="8">
+      <c r="A670" s="5">
         <v>669</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="8">
+      <c r="A671" s="5">
         <v>670</v>
       </c>
     </row>
@@ -4342,22 +4819,22 @@
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="8">
+      <c r="A673" s="5">
         <v>672</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="8">
+      <c r="A674" s="5">
         <v>673</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="8">
+      <c r="A675" s="5">
         <v>674</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="8">
+      <c r="A676" s="5">
         <v>675</v>
       </c>
     </row>
@@ -4367,22 +4844,22 @@
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="8">
+      <c r="A678" s="5">
         <v>677</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="8">
+      <c r="A679" s="5">
         <v>678</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" s="8">
+      <c r="A680" s="5">
         <v>679</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" s="8">
+      <c r="A681" s="5">
         <v>680</v>
       </c>
     </row>
@@ -4392,22 +4869,22 @@
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="8">
+      <c r="A683" s="5">
         <v>682</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684" s="8">
+      <c r="A684" s="5">
         <v>683</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="8">
+      <c r="A685" s="5">
         <v>684</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="8">
+      <c r="A686" s="5">
         <v>685</v>
       </c>
     </row>
@@ -4417,22 +4894,22 @@
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="8">
+      <c r="A688" s="5">
         <v>687</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="8">
+      <c r="A689" s="5">
         <v>688</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" s="8">
+      <c r="A690" s="5">
         <v>689</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691" s="8">
+      <c r="A691" s="5">
         <v>690</v>
       </c>
     </row>
@@ -4442,22 +4919,22 @@
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693" s="8">
+      <c r="A693" s="5">
         <v>692</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694" s="8">
+      <c r="A694" s="5">
         <v>693</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695" s="8">
+      <c r="A695" s="5">
         <v>694</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" s="8">
+      <c r="A696" s="5">
         <v>695</v>
       </c>
     </row>
@@ -4467,22 +4944,22 @@
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698" s="8">
+      <c r="A698" s="5">
         <v>697</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699" s="8">
+      <c r="A699" s="5">
         <v>698</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700" s="8">
+      <c r="A700" s="5">
         <v>699</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701" s="8">
+      <c r="A701" s="5">
         <v>700</v>
       </c>
     </row>
@@ -4492,22 +4969,22 @@
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703" s="8">
+      <c r="A703" s="5">
         <v>702</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704" s="8">
+      <c r="A704" s="5">
         <v>703</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A705" s="8">
+      <c r="A705" s="5">
         <v>704</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A706" s="8">
+      <c r="A706" s="5">
         <v>705</v>
       </c>
     </row>
@@ -4517,22 +4994,22 @@
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A708" s="8">
+      <c r="A708" s="5">
         <v>707</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A709" s="8">
+      <c r="A709" s="5">
         <v>708</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A710" s="8">
+      <c r="A710" s="5">
         <v>709</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A711" s="8">
+      <c r="A711" s="5">
         <v>710</v>
       </c>
     </row>
@@ -4542,22 +5019,22 @@
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A713" s="8">
+      <c r="A713" s="5">
         <v>712</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A714" s="8">
+      <c r="A714" s="5">
         <v>713</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A715" s="8">
+      <c r="A715" s="5">
         <v>714</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A716" s="8">
+      <c r="A716" s="5">
         <v>715</v>
       </c>
     </row>
@@ -4567,22 +5044,22 @@
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A718" s="8">
+      <c r="A718" s="5">
         <v>717</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A719" s="8">
+      <c r="A719" s="5">
         <v>718</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720" s="8">
+      <c r="A720" s="5">
         <v>719</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A721" s="8">
+      <c r="A721" s="5">
         <v>720</v>
       </c>
     </row>
@@ -4592,22 +5069,22 @@
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A723" s="8">
+      <c r="A723" s="5">
         <v>722</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A724" s="8">
+      <c r="A724" s="5">
         <v>723</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A725" s="8">
+      <c r="A725" s="5">
         <v>724</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A726" s="8">
+      <c r="A726" s="5">
         <v>725</v>
       </c>
     </row>
@@ -4617,22 +5094,22 @@
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A728" s="8">
+      <c r="A728" s="5">
         <v>727</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A729" s="8">
+      <c r="A729" s="5">
         <v>728</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A730" s="8">
+      <c r="A730" s="5">
         <v>729</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A731" s="8">
+      <c r="A731" s="5">
         <v>730</v>
       </c>
     </row>
@@ -4642,22 +5119,22 @@
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A733" s="8">
+      <c r="A733" s="5">
         <v>732</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A734" s="8">
+      <c r="A734" s="5">
         <v>733</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A735" s="8">
+      <c r="A735" s="5">
         <v>734</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A736" s="8">
+      <c r="A736" s="5">
         <v>735</v>
       </c>
     </row>
@@ -4667,22 +5144,22 @@
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A738" s="8">
+      <c r="A738" s="5">
         <v>737</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A739" s="8">
+      <c r="A739" s="5">
         <v>738</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A740" s="8">
+      <c r="A740" s="5">
         <v>739</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A741" s="8">
+      <c r="A741" s="5">
         <v>740</v>
       </c>
     </row>
@@ -4692,22 +5169,22 @@
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A743" s="8">
+      <c r="A743" s="5">
         <v>742</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A744" s="8">
+      <c r="A744" s="5">
         <v>743</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A745" s="8">
+      <c r="A745" s="5">
         <v>744</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A746" s="8">
+      <c r="A746" s="5">
         <v>745</v>
       </c>
     </row>
@@ -4717,22 +5194,22 @@
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A748" s="8">
+      <c r="A748" s="5">
         <v>747</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A749" s="8">
+      <c r="A749" s="5">
         <v>748</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A750" s="8">
+      <c r="A750" s="5">
         <v>749</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A751" s="8">
+      <c r="A751" s="5">
         <v>750</v>
       </c>
     </row>
@@ -4742,22 +5219,22 @@
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A753" s="8">
+      <c r="A753" s="5">
         <v>752</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A754" s="8">
+      <c r="A754" s="5">
         <v>753</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755" s="8">
+      <c r="A755" s="5">
         <v>754</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A756" s="8">
+      <c r="A756" s="5">
         <v>755</v>
       </c>
     </row>
@@ -4767,22 +5244,22 @@
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A758" s="8">
+      <c r="A758" s="5">
         <v>757</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A759" s="8">
+      <c r="A759" s="5">
         <v>758</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A760" s="8">
+      <c r="A760" s="5">
         <v>759</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A761" s="8">
+      <c r="A761" s="5">
         <v>760</v>
       </c>
     </row>
@@ -4792,22 +5269,22 @@
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A763" s="8">
+      <c r="A763" s="5">
         <v>762</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A764" s="8">
+      <c r="A764" s="5">
         <v>763</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A765" s="8">
+      <c r="A765" s="5">
         <v>764</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A766" s="8">
+      <c r="A766" s="5">
         <v>765</v>
       </c>
     </row>
@@ -4817,22 +5294,22 @@
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A768" s="8">
+      <c r="A768" s="5">
         <v>767</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A769" s="8">
+      <c r="A769" s="5">
         <v>768</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A770" s="8">
+      <c r="A770" s="5">
         <v>769</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A771" s="8">
+      <c r="A771" s="5">
         <v>770</v>
       </c>
     </row>
@@ -4842,22 +5319,22 @@
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A773" s="8">
+      <c r="A773" s="5">
         <v>772</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A774" s="8">
+      <c r="A774" s="5">
         <v>773</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A775" s="8">
+      <c r="A775" s="5">
         <v>774</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A776" s="8">
+      <c r="A776" s="5">
         <v>775</v>
       </c>
     </row>
@@ -4867,22 +5344,22 @@
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A778" s="8">
+      <c r="A778" s="5">
         <v>777</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A779" s="8">
+      <c r="A779" s="5">
         <v>778</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A780" s="8">
+      <c r="A780" s="5">
         <v>779</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A781" s="8">
+      <c r="A781" s="5">
         <v>780</v>
       </c>
     </row>
@@ -4892,22 +5369,22 @@
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A783" s="8">
+      <c r="A783" s="5">
         <v>782</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A784" s="8">
+      <c r="A784" s="5">
         <v>783</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A785" s="8">
+      <c r="A785" s="5">
         <v>784</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A786" s="8">
+      <c r="A786" s="5">
         <v>785</v>
       </c>
     </row>
@@ -4917,22 +5394,22 @@
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A788" s="8">
+      <c r="A788" s="5">
         <v>787</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A789" s="8">
+      <c r="A789" s="5">
         <v>788</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A790" s="8">
+      <c r="A790" s="5">
         <v>789</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A791" s="8">
+      <c r="A791" s="5">
         <v>790</v>
       </c>
     </row>
@@ -4942,22 +5419,22 @@
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A793" s="8">
+      <c r="A793" s="5">
         <v>792</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A794" s="8">
+      <c r="A794" s="5">
         <v>793</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A795" s="8">
+      <c r="A795" s="5">
         <v>794</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A796" s="8">
+      <c r="A796" s="5">
         <v>795</v>
       </c>
     </row>
@@ -4967,22 +5444,22 @@
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A798" s="8">
+      <c r="A798" s="5">
         <v>797</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A799" s="8">
+      <c r="A799" s="5">
         <v>798</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A800" s="8">
+      <c r="A800" s="5">
         <v>799</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A801" s="8">
+      <c r="A801" s="5">
         <v>800</v>
       </c>
     </row>
@@ -4992,22 +5469,22 @@
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A803" s="8">
+      <c r="A803" s="5">
         <v>802</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A804" s="8">
+      <c r="A804" s="5">
         <v>803</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A805" s="8">
+      <c r="A805" s="5">
         <v>804</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A806" s="8">
+      <c r="A806" s="5">
         <v>805</v>
       </c>
     </row>
@@ -5017,22 +5494,22 @@
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A808" s="8">
+      <c r="A808" s="5">
         <v>807</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A809" s="8">
+      <c r="A809" s="5">
         <v>808</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A810" s="8">
+      <c r="A810" s="5">
         <v>809</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A811" s="8">
+      <c r="A811" s="5">
         <v>810</v>
       </c>
     </row>
@@ -5042,22 +5519,22 @@
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A813" s="8">
+      <c r="A813" s="5">
         <v>812</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A814" s="8">
+      <c r="A814" s="5">
         <v>813</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A815" s="8">
+      <c r="A815" s="5">
         <v>814</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A816" s="8">
+      <c r="A816" s="5">
         <v>815</v>
       </c>
     </row>
@@ -5067,22 +5544,22 @@
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A818" s="8">
+      <c r="A818" s="5">
         <v>817</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A819" s="8">
+      <c r="A819" s="5">
         <v>818</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A820" s="8">
+      <c r="A820" s="5">
         <v>819</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A821" s="8">
+      <c r="A821" s="5">
         <v>820</v>
       </c>
     </row>
@@ -5092,22 +5569,22 @@
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A823" s="8">
+      <c r="A823" s="5">
         <v>822</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A824" s="8">
+      <c r="A824" s="5">
         <v>823</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A825" s="8">
+      <c r="A825" s="5">
         <v>824</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A826" s="8">
+      <c r="A826" s="5">
         <v>825</v>
       </c>
     </row>
@@ -5117,22 +5594,22 @@
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A828" s="8">
+      <c r="A828" s="5">
         <v>827</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A829" s="8">
+      <c r="A829" s="5">
         <v>828</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A830" s="8">
+      <c r="A830" s="5">
         <v>829</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A831" s="8">
+      <c r="A831" s="5">
         <v>830</v>
       </c>
     </row>
@@ -5142,22 +5619,22 @@
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A833" s="8">
+      <c r="A833" s="5">
         <v>832</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A834" s="8">
+      <c r="A834" s="5">
         <v>833</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A835" s="8">
+      <c r="A835" s="5">
         <v>834</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A836" s="8">
+      <c r="A836" s="5">
         <v>835</v>
       </c>
     </row>
@@ -5167,22 +5644,22 @@
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A838" s="8">
+      <c r="A838" s="5">
         <v>837</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A839" s="8">
+      <c r="A839" s="5">
         <v>838</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A840" s="8">
+      <c r="A840" s="5">
         <v>839</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A841" s="8">
+      <c r="A841" s="5">
         <v>840</v>
       </c>
     </row>
@@ -5192,22 +5669,22 @@
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A843" s="8">
+      <c r="A843" s="5">
         <v>842</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A844" s="8">
+      <c r="A844" s="5">
         <v>843</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A845" s="8">
+      <c r="A845" s="5">
         <v>844</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A846" s="8">
+      <c r="A846" s="5">
         <v>845</v>
       </c>
     </row>
@@ -5217,22 +5694,22 @@
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A848" s="8">
+      <c r="A848" s="5">
         <v>847</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A849" s="8">
+      <c r="A849" s="5">
         <v>848</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A850" s="8">
+      <c r="A850" s="5">
         <v>849</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A851" s="8">
+      <c r="A851" s="5">
         <v>850</v>
       </c>
     </row>
@@ -5242,22 +5719,22 @@
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A853" s="8">
+      <c r="A853" s="5">
         <v>852</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A854" s="8">
+      <c r="A854" s="5">
         <v>853</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A855" s="8">
+      <c r="A855" s="5">
         <v>854</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A856" s="8">
+      <c r="A856" s="5">
         <v>855</v>
       </c>
     </row>
@@ -5267,22 +5744,22 @@
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A858" s="8">
+      <c r="A858" s="5">
         <v>857</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A859" s="8">
+      <c r="A859" s="5">
         <v>858</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A860" s="8">
+      <c r="A860" s="5">
         <v>859</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A861" s="8">
+      <c r="A861" s="5">
         <v>860</v>
       </c>
     </row>
@@ -5292,22 +5769,22 @@
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A863" s="8">
+      <c r="A863" s="5">
         <v>862</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A864" s="8">
+      <c r="A864" s="5">
         <v>863</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A865" s="8">
+      <c r="A865" s="5">
         <v>864</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A866" s="8">
+      <c r="A866" s="5">
         <v>865</v>
       </c>
     </row>
@@ -5317,22 +5794,22 @@
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A868" s="8">
+      <c r="A868" s="5">
         <v>867</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A869" s="8">
+      <c r="A869" s="5">
         <v>868</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A870" s="8">
+      <c r="A870" s="5">
         <v>869</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A871" s="8">
+      <c r="A871" s="5">
         <v>870</v>
       </c>
     </row>
@@ -5342,22 +5819,22 @@
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A873" s="8">
+      <c r="A873" s="5">
         <v>872</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A874" s="8">
+      <c r="A874" s="5">
         <v>873</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A875" s="8">
+      <c r="A875" s="5">
         <v>874</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A876" s="8">
+      <c r="A876" s="5">
         <v>875</v>
       </c>
     </row>
@@ -5367,22 +5844,22 @@
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A878" s="8">
+      <c r="A878" s="5">
         <v>877</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A879" s="8">
+      <c r="A879" s="5">
         <v>878</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A880" s="8">
+      <c r="A880" s="5">
         <v>879</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A881" s="8">
+      <c r="A881" s="5">
         <v>880</v>
       </c>
     </row>
@@ -5392,22 +5869,22 @@
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A883" s="8">
+      <c r="A883" s="5">
         <v>882</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A884" s="8">
+      <c r="A884" s="5">
         <v>883</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A885" s="8">
+      <c r="A885" s="5">
         <v>884</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A886" s="8">
+      <c r="A886" s="5">
         <v>885</v>
       </c>
     </row>
@@ -5417,22 +5894,22 @@
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A888" s="8">
+      <c r="A888" s="5">
         <v>887</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A889" s="8">
+      <c r="A889" s="5">
         <v>888</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A890" s="8">
+      <c r="A890" s="5">
         <v>889</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A891" s="8">
+      <c r="A891" s="5">
         <v>890</v>
       </c>
     </row>
@@ -5442,22 +5919,22 @@
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A893" s="8">
+      <c r="A893" s="5">
         <v>892</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A894" s="8">
+      <c r="A894" s="5">
         <v>893</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A895" s="8">
+      <c r="A895" s="5">
         <v>894</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A896" s="8">
+      <c r="A896" s="5">
         <v>895</v>
       </c>
     </row>
@@ -5467,22 +5944,22 @@
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A898" s="8">
+      <c r="A898" s="5">
         <v>897</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A899" s="8">
+      <c r="A899" s="5">
         <v>898</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A900" s="8">
+      <c r="A900" s="5">
         <v>899</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A901" s="8">
+      <c r="A901" s="5">
         <v>900</v>
       </c>
     </row>
@@ -5492,22 +5969,22 @@
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A903" s="8">
+      <c r="A903" s="5">
         <v>902</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A904" s="8">
+      <c r="A904" s="5">
         <v>903</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A905" s="8">
+      <c r="A905" s="5">
         <v>904</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A906" s="8">
+      <c r="A906" s="5">
         <v>905</v>
       </c>
     </row>
@@ -5517,22 +5994,22 @@
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A908" s="8">
+      <c r="A908" s="5">
         <v>907</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A909" s="8">
+      <c r="A909" s="5">
         <v>908</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A910" s="8">
+      <c r="A910" s="5">
         <v>909</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A911" s="8">
+      <c r="A911" s="5">
         <v>910</v>
       </c>
     </row>
@@ -5542,22 +6019,22 @@
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A913" s="8">
+      <c r="A913" s="5">
         <v>912</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A914" s="8">
+      <c r="A914" s="5">
         <v>913</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A915" s="8">
+      <c r="A915" s="5">
         <v>914</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A916" s="8">
+      <c r="A916" s="5">
         <v>915</v>
       </c>
     </row>
@@ -5567,22 +6044,22 @@
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A918" s="8">
+      <c r="A918" s="5">
         <v>917</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A919" s="8">
+      <c r="A919" s="5">
         <v>918</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A920" s="8">
+      <c r="A920" s="5">
         <v>919</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A921" s="8">
+      <c r="A921" s="5">
         <v>920</v>
       </c>
     </row>
@@ -5592,22 +6069,22 @@
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A923" s="8">
+      <c r="A923" s="5">
         <v>922</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A924" s="8">
+      <c r="A924" s="5">
         <v>923</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A925" s="8">
+      <c r="A925" s="5">
         <v>924</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A926" s="8">
+      <c r="A926" s="5">
         <v>925</v>
       </c>
     </row>
@@ -5617,22 +6094,22 @@
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A928" s="8">
+      <c r="A928" s="5">
         <v>927</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A929" s="8">
+      <c r="A929" s="5">
         <v>928</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A930" s="8">
+      <c r="A930" s="5">
         <v>929</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A931" s="8">
+      <c r="A931" s="5">
         <v>930</v>
       </c>
     </row>
@@ -5642,22 +6119,22 @@
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A933" s="8">
+      <c r="A933" s="5">
         <v>932</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A934" s="8">
+      <c r="A934" s="5">
         <v>933</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A935" s="8">
+      <c r="A935" s="5">
         <v>934</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A936" s="8">
+      <c r="A936" s="5">
         <v>935</v>
       </c>
     </row>
@@ -5667,22 +6144,22 @@
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A938" s="8">
+      <c r="A938" s="5">
         <v>937</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A939" s="8">
+      <c r="A939" s="5">
         <v>938</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A940" s="8">
+      <c r="A940" s="5">
         <v>939</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A941" s="8">
+      <c r="A941" s="5">
         <v>940</v>
       </c>
     </row>
@@ -5692,22 +6169,22 @@
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A943" s="8">
+      <c r="A943" s="5">
         <v>942</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A944" s="8">
+      <c r="A944" s="5">
         <v>943</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A945" s="8">
+      <c r="A945" s="5">
         <v>944</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A946" s="8">
+      <c r="A946" s="5">
         <v>945</v>
       </c>
     </row>
@@ -5717,22 +6194,22 @@
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A948" s="8">
+      <c r="A948" s="5">
         <v>947</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A949" s="8">
+      <c r="A949" s="5">
         <v>948</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A950" s="8">
+      <c r="A950" s="5">
         <v>949</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A951" s="8">
+      <c r="A951" s="5">
         <v>950</v>
       </c>
     </row>
@@ -5742,22 +6219,22 @@
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A953" s="8">
+      <c r="A953" s="5">
         <v>952</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A954" s="8">
+      <c r="A954" s="5">
         <v>953</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A955" s="8">
+      <c r="A955" s="5">
         <v>954</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A956" s="8">
+      <c r="A956" s="5">
         <v>955</v>
       </c>
     </row>
@@ -5767,22 +6244,22 @@
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A958" s="8">
+      <c r="A958" s="5">
         <v>957</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A959" s="8">
+      <c r="A959" s="5">
         <v>958</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A960" s="8">
+      <c r="A960" s="5">
         <v>959</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A961" s="8">
+      <c r="A961" s="5">
         <v>960</v>
       </c>
     </row>
@@ -5792,22 +6269,22 @@
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A963" s="8">
+      <c r="A963" s="5">
         <v>962</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A964" s="8">
+      <c r="A964" s="5">
         <v>963</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A965" s="8">
+      <c r="A965" s="5">
         <v>964</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A966" s="8">
+      <c r="A966" s="5">
         <v>965</v>
       </c>
     </row>
@@ -5817,22 +6294,22 @@
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A968" s="8">
+      <c r="A968" s="5">
         <v>967</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A969" s="8">
+      <c r="A969" s="5">
         <v>968</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A970" s="8">
+      <c r="A970" s="5">
         <v>969</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A971" s="8">
+      <c r="A971" s="5">
         <v>970</v>
       </c>
     </row>
@@ -5842,22 +6319,22 @@
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A973" s="8">
+      <c r="A973" s="5">
         <v>972</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A974" s="8">
+      <c r="A974" s="5">
         <v>973</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A975" s="8">
+      <c r="A975" s="5">
         <v>974</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A976" s="8">
+      <c r="A976" s="5">
         <v>975</v>
       </c>
     </row>
@@ -5867,22 +6344,22 @@
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A978" s="8">
+      <c r="A978" s="5">
         <v>977</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A979" s="8">
+      <c r="A979" s="5">
         <v>978</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A980" s="8">
+      <c r="A980" s="5">
         <v>979</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A981" s="8">
+      <c r="A981" s="5">
         <v>980</v>
       </c>
     </row>
@@ -5892,22 +6369,22 @@
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A983" s="8">
+      <c r="A983" s="5">
         <v>982</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A984" s="8">
+      <c r="A984" s="5">
         <v>983</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A985" s="8">
+      <c r="A985" s="5">
         <v>984</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A986" s="8">
+      <c r="A986" s="5">
         <v>985</v>
       </c>
     </row>
@@ -5917,22 +6394,22 @@
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A988" s="8">
+      <c r="A988" s="5">
         <v>987</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A989" s="8">
+      <c r="A989" s="5">
         <v>988</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A990" s="8">
+      <c r="A990" s="5">
         <v>989</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A991" s="8">
+      <c r="A991" s="5">
         <v>990</v>
       </c>
     </row>
@@ -5942,22 +6419,22 @@
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A993" s="8">
+      <c r="A993" s="5">
         <v>992</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A994" s="8">
+      <c r="A994" s="5">
         <v>993</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A995" s="8">
+      <c r="A995" s="5">
         <v>994</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A996" s="8">
+      <c r="A996" s="5">
         <v>995</v>
       </c>
     </row>
@@ -5967,17 +6444,17 @@
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A998" s="8">
+      <c r="A998" s="5">
         <v>997</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A999" s="8">
+      <c r="A999" s="5">
         <v>998</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="8">
+      <c r="A1000" s="5">
         <v>999</v>
       </c>
     </row>
@@ -5997,7 +6474,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Утилита трудозатрат пожелания.xlsx
+++ b/Утилита трудозатрат пожелания.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\-staff-time\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alena\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="83">
   <si>
     <t>Дата</t>
   </si>
@@ -394,7 +394,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,12 +404,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -524,6 +518,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -536,7 +533,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,46 +566,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -875,9 +857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,23 +904,23 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="17">
         <v>43248</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -954,11 +936,11 @@
         <v>43</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>78</v>
@@ -968,23 +950,23 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>43248</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -992,23 +974,23 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="20">
         <v>43248</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1016,67 +998,67 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>43248</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>43248</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>43248</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1084,23 +1066,23 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>43248</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1108,155 +1090,155 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="24">
         <v>43248</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="31" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>43248</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>43248</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>43248</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="9">
         <v>43248</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="24">
         <v>43248</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="31" t="s">
+      <c r="E15" s="25"/>
+      <c r="F15" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="29"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="9">
         <v>43248</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1264,23 +1246,23 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>43256</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="20" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="14" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1288,187 +1270,185 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="24">
         <v>43256</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29" t="s">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="29"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="24">
         <v>43256</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="29"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="9">
         <v>43256</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="24">
         <v>43256</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29" t="s">
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="29"/>
+      <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="9">
         <v>43256</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>43256</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="24">
         <v>43256</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="10"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="9">
         <v>43256</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="9">
         <v>43256</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1476,157 +1456,157 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="9">
         <v>43256</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="28">
         <v>43256</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="9">
         <v>43257</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="9">
         <v>43257</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="9">
         <v>43257</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="24">
         <v>43257</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="28">
         <v>43257</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="24">
         <v>43257</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5">

--- a/Утилита трудозатрат пожелания.xlsx
+++ b/Утилита трудозатрат пожелания.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\-staff-time\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\_УчётТрудозатрат\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="86">
   <si>
     <t>Дата</t>
   </si>
@@ -354,11 +354,25 @@
   <si>
     <t>Есть ли в новой версии этот баг?</t>
   </si>
+  <si>
+    <t>Окно корректировки задач:
+1. Сделать размер по умолчанию больше (желательно чтобы была возможность руками еще увеличить размер) - важно чтобы поля с названием и описанием были больше и в дереве по ширине можно было видеть все уровни без использования горизонтального скролла;
+2. Сразу открывать дерево в правой части на том месте где сейчас находится задача</t>
+  </si>
+  <si>
+    <t>При открытии окна редактирования задачи если перехожу в любую другую программу, потом возвращаюсь в утилиту не вижу этого окна, но сделать ничего не могу (потом вообще сложно его найти, т.к. и в панели задач оно тоже отдельно не светится). Самое удобное было бы если утилита открывалась сразу с этим окном при переходе с другой программы, если перед этим оно было открыто</t>
+  </si>
+  <si>
+    <t>При внесении времени работы в виде диапазона:
+1. В поле нужны только часы и минуты;
+2. Исходя из диапазона должно рассчитываться количество минут, сейчас такое впечатление, что время окончания считается как время начала + количество минут (т.к. не могу скорректировать время окончания, оно становится автоматом при указания количества минут);
+3. Рассчет времени странный ставлю время начала 9:15:00, длительность 45 минут, время окончания посчитал 10:19:11, хотя должно быть 10:00:00.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -591,6 +605,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -876,8 +893,8 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,19 +1645,46 @@
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="35">
+        <v>43271</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="35">
+        <v>43271</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
+      </c>
+      <c r="B37" s="35">
+        <v>43271</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">

--- a/Утилита трудозатрат пожелания.xlsx
+++ b/Утилита трудозатрат пожелания.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\_УчётТрудозатрат\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\-staff-time\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="89">
   <si>
     <t>Дата</t>
   </si>
@@ -368,12 +368,21 @@
 2. Исходя из диапазона должно рассчитываться количество минут, сейчас такое впечатление, что время окончания считается как время начала + количество минут (т.к. не могу скорректировать время окончания, оно становится автоматом при указания количества минут);
 3. Рассчет времени странный ставлю время начала 9:15:00, длительность 45 минут, время окончания посчитал 10:19:11, хотя должно быть 10:00:00.</t>
   </si>
+  <si>
+    <t>Обсуждение</t>
+  </si>
+  <si>
+    <t>Добавить поле в бд. Если для каждого пользователя свое поле, то в таблицу связей пользователя с задачей.</t>
+  </si>
+  <si>
+    <t>Желательно еще потестить поведение</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +411,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -447,8 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -504,8 +520,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -595,23 +612,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -892,9 +910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,23 +1143,23 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="12">
         <v>43248</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="31" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="29"/>
+      <c r="G10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
@@ -1235,23 +1253,23 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="9">
         <v>43248</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="31" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="29"/>
+      <c r="G15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1305,41 +1323,45 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="9">
         <v>43256</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="29"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="32">
         <v>43256</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="29"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -1367,21 +1389,23 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="9">
         <v>43256</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="29"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -1461,8 +1485,12 @@
         <v>68</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="F25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1533,21 +1561,23 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="9">
         <v>43257</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -1628,28 +1658,32 @@
       <c r="H33" s="34"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="35">
         <v>33</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="9">
         <v>43257</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="35">
+      <c r="B35" s="31">
         <v>43271</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -1657,13 +1691,16 @@
       </c>
       <c r="D35" s="7" t="s">
         <v>83</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="35">
+      <c r="B36" s="31">
         <v>43271</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1671,13 +1708,19 @@
       </c>
       <c r="D36" s="7" t="s">
         <v>84</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="35">
+      <c r="B37" s="31">
         <v>43271</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -1685,6 +1728,15 @@
       </c>
       <c r="D37" s="7" t="s">
         <v>85</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">

--- a/Утилита трудозатрат пожелания.xlsx
+++ b/Утилита трудозатрат пожелания.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
   <si>
     <t>Дата</t>
   </si>
@@ -343,9 +343,6 @@
     <t>Ввод времени работы: минуты + время начала. Можно обговорить другой вариант.</t>
   </si>
   <si>
-    <t>Дерево</t>
-  </si>
-  <si>
     <t>Невозможно вызвать два редактирования задачи</t>
   </si>
   <si>
@@ -382,7 +379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,13 +408,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -425,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,12 +443,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,9 +506,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -591,41 +575,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -911,8 +880,8 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,26 +945,26 @@
       <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="12">
         <v>43248</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1024,28 +993,24 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="25">
         <v>43248</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="27" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="25" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="25" t="s">
-        <v>79</v>
-      </c>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1292,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1309,14 +1274,12 @@
         <v>60</v>
       </c>
       <c r="E17" s="18"/>
-      <c r="F17" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="F17" s="20"/>
       <c r="G17" s="18" t="s">
         <v>37</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1345,22 +1308,22 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="25">
         <v>43256</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34" t="s">
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="27" t="s">
         <v>86</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1514,7 +1477,7 @@
         <v>36</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -1543,19 +1506,19 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="25">
         <v>43256</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -1623,42 +1586,42 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="25">
         <v>43257</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="25">
         <v>43257</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="35">
+      <c r="A34" s="28">
         <v>33</v>
       </c>
       <c r="B34" s="9">
@@ -1683,14 +1646,14 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="24">
         <v>43271</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>29</v>
@@ -1700,14 +1663,14 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="31">
+      <c r="B36" s="24">
         <v>43271</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>29</v>
@@ -1720,14 +1683,14 @@
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B37" s="24">
         <v>43271</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>29</v>
@@ -1736,7 +1699,7 @@
         <v>36</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">

--- a/Утилита трудозатрат пожелания.xlsx
+++ b/Утилита трудозатрат пожелания.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\_УчётТрудозатрат\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\-staff-time\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
   <si>
     <t>Дата</t>
   </si>
@@ -343,9 +343,6 @@
     <t>Ввод времени работы: минуты + время начала. Можно обговорить другой вариант.</t>
   </si>
   <si>
-    <t>Дерево</t>
-  </si>
-  <si>
     <t>Невозможно вызвать два редактирования задачи</t>
   </si>
   <si>
@@ -368,11 +365,20 @@
 2. Исходя из диапазона должно рассчитываться количество минут, сейчас такое впечатление, что время окончания считается как время начала + количество минут (т.к. не могу скорректировать время окончания, оно становится автоматом при указания количества минут);
 3. Рассчет времени странный ставлю время начала 9:15:00, длительность 45 минут, время окончания посчитал 10:19:11, хотя должно быть 10:00:00.</t>
   </si>
+  <si>
+    <t>Обсуждение</t>
+  </si>
+  <si>
+    <t>Добавить поле в бд. Если для каждого пользователя свое поле, то в таблицу связей пользователя с задачей.</t>
+  </si>
+  <si>
+    <t>Желательно еще потестить поведение</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,13 +408,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,14 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -504,10 +504,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -574,44 +575,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -892,9 +879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,26 +945,26 @@
       <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="12">
         <v>43248</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1006,28 +993,24 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="25">
         <v>43248</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="27" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="25" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="25" t="s">
-        <v>79</v>
-      </c>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1125,23 +1108,23 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="12">
         <v>43248</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="31" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="29"/>
+      <c r="G10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
@@ -1235,23 +1218,23 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="9">
         <v>43248</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="31" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="29"/>
+      <c r="G15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1274,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1291,55 +1274,57 @@
         <v>60</v>
       </c>
       <c r="E17" s="18"/>
-      <c r="F17" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="F17" s="20"/>
       <c r="G17" s="18" t="s">
         <v>37</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="9">
         <v>43256</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="29"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="25">
         <v>43256</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="29"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -1367,21 +1352,23 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="9">
         <v>43256</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="29"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -1461,8 +1448,12 @@
         <v>68</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="F25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1486,7 +1477,7 @@
         <v>36</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -1515,39 +1506,41 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="25">
         <v>43256</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="9">
         <v>43257</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -1593,98 +1586,120 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="25">
         <v>43257</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="25">
         <v>43257</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="28">
         <v>33</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="9">
         <v>43257</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="35">
+      <c r="B35" s="24">
         <v>43271</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="35">
+      <c r="B36" s="24">
         <v>43271</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="35">
+      <c r="B37" s="24">
         <v>43271</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">

--- a/Утилита трудозатрат пожелания.xlsx
+++ b/Утилита трудозатрат пожелания.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\-staff-time\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alena\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="93">
   <si>
     <t>Дата</t>
   </si>
@@ -373,6 +373,21 @@
   </si>
   <si>
     <t>Желательно еще потестить поведение</t>
+  </si>
+  <si>
+    <t>Следующая или первая</t>
+  </si>
+  <si>
+    <t>Сейчас задачи сортируются по id. Для подобного функционала потребуется отдельное поле в базе данных для порядка.</t>
+  </si>
+  <si>
+    <t>Сортируются в порядке добавления</t>
+  </si>
+  <si>
+    <t>Свернуть все, развернуть все описано выше. Развернуть до определенного уровня?</t>
+  </si>
+  <si>
+    <t>Окна переделаны, нуждаются в тестировании</t>
   </si>
 </sst>
 </file>
@@ -508,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -530,15 +545,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -549,9 +555,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -880,8 +883,8 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="B35:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,45 +929,45 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="17">
         <v>43248</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="9">
         <v>43248</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -972,111 +975,111 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>43248</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="21">
         <v>43248</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="27" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="27"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>43248</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>43248</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>43248</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1084,23 +1087,23 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>43248</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1108,111 +1111,111 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>43248</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>43248</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>43248</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>43248</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="9">
         <v>43248</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1228,11 +1231,11 @@
         <v>53</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="10"/>
     </row>
@@ -1240,23 +1243,23 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="9">
         <v>43248</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1264,21 +1267,21 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>43256</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="18" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="14" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1300,29 +1303,31 @@
         <v>29</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="21">
         <v>43256</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="23" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1330,23 +1335,23 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="9">
         <v>43256</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
@@ -1366,7 +1371,7 @@
         <v>29</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="10"/>
     </row>
@@ -1374,109 +1379,111 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="9">
         <v>43256</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>43256</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="21">
         <v>43256</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="10"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="9">
         <v>43256</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="9">
         <v>43256</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1484,186 +1491,195 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="9">
         <v>43256</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="21">
         <v>43256</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-    </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29">
         <v>43257</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10" t="s">
+      <c r="E29"/>
+      <c r="F29" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="10"/>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="25">
         <v>29</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="21">
         <v>43257</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="9">
         <v>43257</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="21">
         <v>43257</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="21">
         <v>43257</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="28">
+      <c r="A34" s="25">
         <v>33</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="21">
         <v>43257</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10" t="s">
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9">
+        <v>43271</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="24">
-        <v>43271</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>29</v>
+      <c r="G35" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="20">
         <v>43271</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1683,7 +1699,7 @@
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="20">
         <v>43271</v>
       </c>
       <c r="C37" s="6" t="s">

--- a/Утилита трудозатрат пожелания.xlsx
+++ b/Утилита трудозатрат пожелания.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alena\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\-staff-time\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
   <si>
     <t>Дата</t>
   </si>
@@ -378,9 +378,6 @@
     <t>Следующая или первая</t>
   </si>
   <si>
-    <t>Сейчас задачи сортируются по id. Для подобного функционала потребуется отдельное поле в базе данных для порядка.</t>
-  </si>
-  <si>
     <t>Сортируются в порядке добавления</t>
   </si>
   <si>
@@ -388,6 +385,9 @@
   </si>
   <si>
     <t>Окна переделаны, нуждаются в тестировании</t>
+  </si>
+  <si>
+    <t>Чурсина Е.А,</t>
   </si>
 </sst>
 </file>
@@ -883,8 +883,8 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="B35:H35"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,27 +1419,27 @@
       </c>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24">
         <v>43256</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>89</v>
-      </c>
+      <c r="E24"/>
+      <c r="F24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -1524,7 +1524,9 @@
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+      <c r="G28" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1548,7 +1550,7 @@
         <v>36</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1648,7 +1650,7 @@
         <v>85</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1672,7 +1674,7 @@
         <v>36</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="90" x14ac:dyDescent="0.25">

--- a/Утилита трудозатрат пожелания.xlsx
+++ b/Утилита трудозатрат пожелания.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alena\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\_УчётТрудозатрат\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
   <si>
     <t>Дата</t>
   </si>
@@ -343,6 +343,9 @@
     <t>Ввод времени работы: минуты + время начала. Можно обговорить другой вариант.</t>
   </si>
   <si>
+    <t>Дерево</t>
+  </si>
+  <si>
     <t>Невозможно вызвать два редактирования задачи</t>
   </si>
   <si>
@@ -366,35 +369,39 @@
 3. Рассчет времени странный ставлю время начала 9:15:00, длительность 45 минут, время окончания посчитал 10:19:11, хотя должно быть 10:00:00.</t>
   </si>
   <si>
-    <t>Обсуждение</t>
-  </si>
-  <si>
-    <t>Добавить поле в бд. Если для каждого пользователя свое поле, то в таблицу связей пользователя с задачей.</t>
-  </si>
-  <si>
-    <t>Желательно еще потестить поведение</t>
-  </si>
-  <si>
-    <t>Следующая или первая</t>
-  </si>
-  <si>
-    <t>Сейчас задачи сортируются по id. Для подобного функционала потребуется отдельное поле в базе данных для порядка.</t>
-  </si>
-  <si>
-    <t>Сортируются в порядке добавления</t>
-  </si>
-  <si>
-    <t>Свернуть все, развернуть все описано выше. Развернуть до определенного уровня?</t>
-  </si>
-  <si>
-    <t>Окна переделаны, нуждаются в тестировании</t>
+    <t>Нужно что-то сделать с форматом полей для ввода времени начала и конца работ чтобы можно было писать часы и минуты без перехода и автоматом определялось что первые цифры это часы, а последние минуты</t>
+  </si>
+  <si>
+    <t>Никак не получается внести диапазон времени с 9:15 до 10:00. Если с временем начала с горем пополам справилась, то время конца мне так и не поддалось.</t>
+  </si>
+  <si>
+    <t>Заголовок к работе должен содержать не корневой узел, максимально вмещаемый путь от листа дерева к корню (желательно чтобы количество символов рассчитывалось от размера окна)</t>
+  </si>
+  <si>
+    <t>При удалении задачи из дерева спрашивать точно ли уверены. Если к задаче привязаны работы, возможно не давать удалять или давать только администратору (но работы тогда не должны удаляться) - этот вопрос лучше обсудить с Оюной.</t>
+  </si>
+  <si>
+    <t>При создании/корректировки задачи появляется окно для ввода наименования, необходимо чтобы при его растягивании часть с наименованиями полей оставалась фиксированного вида, а увеличивались только сами поля.</t>
+  </si>
+  <si>
+    <t>При корректировке задачи, в частности попытке переноса в другой узел, при изменении дерева (открытие/закрытие узлов) на форме "Редактирование" тоже самое происходит и в основном дереве.</t>
+  </si>
+  <si>
+    <t>Сделать либо возможность увеличения ширины окна с деревом на форме "Редактирование" или хотя бы горизонтальный скролл</t>
+  </si>
+  <si>
+    <t>Поле с описанием задачи сделать визуально большим, чтобы было видно несколько строк (думаю штук 5 будет достаточно, если напишем больше, то должен появиться скролл)</t>
+  </si>
+  <si>
+    <t>По п. 2 не увидела изменений
+Петлина М.П.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,14 +430,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,7 +477,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -519,11 +540,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -545,6 +565,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -555,6 +584,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,30 +610,47 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -882,9 +931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="B35:H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,26 +978,26 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="21">
         <v>43248</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="9">
@@ -961,11 +1010,11 @@
         <v>43</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="16" t="s">
         <v>56</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>78</v>
@@ -975,111 +1024,115 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="12">
         <v>43248</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="24">
         <v>43248</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="23" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="25" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="12">
         <v>43248</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="12">
         <v>43248</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="12">
         <v>43248</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1087,23 +1140,23 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="12">
         <v>43248</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1111,651 +1164,680 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="28">
         <v>43248</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="29"/>
+      <c r="F10" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12">
+        <v>43248</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9">
-        <v>43248</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="12">
         <v>43248</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="12">
         <v>43248</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="12">
         <v>43248</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="28">
         <v>43248</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="29"/>
+      <c r="F15" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="10"/>
+      <c r="G15" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="12">
         <v>43248</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>79</v>
+      <c r="H16" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="17">
         <v>43256</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="14" t="s">
+      <c r="E17" s="18"/>
+      <c r="F17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>81</v>
+      <c r="H17" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="28">
         <v>43256</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>88</v>
-      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="29"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="28">
         <v>43256</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>86</v>
-      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="12">
         <v>43256</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="28">
         <v>43256</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="10"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="12">
         <v>43256</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="10"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="12">
         <v>43256</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="9">
         <v>43256</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>89</v>
-      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="12">
         <v>43256</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="10"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="12">
         <v>43256</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>80</v>
+      <c r="H26" s="13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="12">
         <v>43256</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10" t="s">
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="36" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="32">
         <v>43256</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="12">
         <v>43257</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E29"/>
-      <c r="F29" t="s">
+      <c r="E29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="G29" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
-        <v>29</v>
-      </c>
-      <c r="B30" s="21">
+      <c r="B30" s="12">
         <v>43257</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="12">
         <v>43257</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10" t="s">
+      <c r="E31" s="13"/>
+      <c r="F31" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="28">
         <v>43257</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="32">
         <v>43257</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="28">
         <v>43257</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>91</v>
-      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="35">
         <v>43271</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>92</v>
+      <c r="D35" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="35">
         <v>43271</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="35">
         <v>43271</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="35">
+        <v>43286</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="35">
+        <v>43286</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="35">
+        <v>43286</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="35">
+        <v>43286</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="35">
+        <v>43286</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="35">
+        <v>43286</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="35">
+        <v>43286</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
+      </c>
+      <c r="B45" s="35">
+        <v>43286</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
